--- a/data/trans_dic/P22_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de felicidad &lt;=7 en la última semana</t>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>36,9%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>37,69%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>41,85%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 33,58</t>
+          <t>20,33; 36,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 41,26</t>
+          <t>26,01; 39,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,33; 40,09</t>
+          <t>26,88; 39,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 42,01</t>
+          <t>20,84; 43,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,27; 53,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,58; 45,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,03; 47,22</t>
+          <t>35,27; 52,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,23; 48,33</t>
+          <t>35,97; 47,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,76; 43,07</t>
+          <t>38,7; 49,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,08; 41,45</t>
+          <t>39,59; 56,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,54; 42,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,38; 43,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31,3; 43,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,12; 42,27</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>35,38; 43,55</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>34,47; 48,67</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>42,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>39,84%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>40,18%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,67; 41,4</t>
+          <t>32,81; 46,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,05; 38,94</t>
+          <t>31,47; 41,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,64; 40,5</t>
+          <t>30,66; 40,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,78; 37,96</t>
+          <t>31,82; 44,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,49; 49,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,37; 45,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,67; 47,34</t>
+          <t>40,53; 51,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,07; 49,68</t>
+          <t>37,82; 46,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 44,28</t>
+          <t>40,52; 48,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 40,45</t>
+          <t>37,19; 47,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,04; 42,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,52; 42,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>39,01; 46,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35,77; 42,76</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 42,96</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>36,32; 44,94</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>45,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>38,28%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,57; 46,16</t>
+          <t>30,48; 44,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,23; 39,67</t>
+          <t>29,21; 39,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 40,84</t>
+          <t>30,63; 40,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,79; 46,01</t>
+          <t>29,45; 41,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,67; 49,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,66; 50,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,2; 45,67</t>
+          <t>39,63; 51,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,71; 45,12</t>
+          <t>41,51; 51,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,46; 45,66</t>
+          <t>37,57; 45,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,76; 43,59</t>
+          <t>35,71; 45,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,32; 41,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,27; 42,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>37,07; 45,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>36,93; 44,27</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>35,57; 41,92</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>34,08; 42,08</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>39,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>36,84%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,68; 39,19</t>
+          <t>30,32; 40,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,45; 37,17</t>
+          <t>29,01; 40,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,92; 37,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 38,14</t>
+          <t>27,98; 39,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,19; 48,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,61; 44,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,67; 45,06</t>
+          <t>39,8; 48,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,01; 45,52</t>
+          <t>34,23; 45,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,31; 42,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 40,41</t>
+          <t>33,46; 44,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,56; 40,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,36; 40,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 43,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>33,02; 41,14</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>32,57; 40,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34,81%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42,25%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>40,6%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>38,76%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32,56; 39,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 37,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32,19; 38,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31,95; 39,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42,53; 48,1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40,15; 45,14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40,83; 46,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39,61; 45,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>38,36; 42,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>36,99; 40,8</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>37,51; 41,6</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>36,38; 41,07</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83918</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>174944</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>235660</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>148966</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>176546</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>255441</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>384075</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>295363</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>260465</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>430386</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>619735</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>444329</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>61867; 111964</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>136953; 210515</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>188762; 274078</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>93224; 196323</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>141662; 209409</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>221287; 294288</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>336597; 428209</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>243259; 348241</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>220985; 305897</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>378151; 482707</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>556265; 684562</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>366013; 516773</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>364784</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>435603</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>568847</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>400281</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>460671</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>515655</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>667179</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>462499</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>825455</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>951258</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1236027</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>862780</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>305973; 431314</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>379205; 502776</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>491978; 653796</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>338471; 477064</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>403335; 511227</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>463930; 567840</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>606917; 730588</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>402960; 519092</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>751954; 903489</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>869720; 1039743</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1132867; 1332974</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>779925; 964999</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>265070</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>290912</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>387588</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>292557</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>347225</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>436284</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>482522</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>368060</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>612295</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>727196</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>870111</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>660617</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>217454; 316202</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>246987; 333126</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>333027; 445486</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>244060; 345265</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>304850; 395964</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>390932; 480833</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>435506; 528754</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>320329; 410735</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>549560; 677807</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>660144; 791223</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>798949; 941705</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>588129; 726172</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>489851</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>294183</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>368059</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>609403</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>297318</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>384820</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1099254</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>591501</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>752879</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>423741; 560219</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>248863; 349388</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>306854; 430329</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>547485; 668801</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>255883; 339739</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>328092; 441200</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1012620; 1196274</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>530058; 660502</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>676431; 833433</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>599.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>715.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1011.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1162.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1174.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>890.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1203624</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1195643</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1192096</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1209862</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1593846</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1504698</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1533776</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1510743</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2797469</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2700340</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2725872</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2720605</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1090261; 1310710</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1101284; 1301567</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1092602; 1298500</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1098092; 1340994</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1506057; 1703397</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1417684; 1593866</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1439934; 1622834</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1416144; 1630783</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2643073; 2925290</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2577116; 2842304</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2596165; 2879236</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>2551213; 2880163</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
